--- a/DateBase/orders/Nha Thu_2025-6-6.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-6.xlsx
@@ -693,6 +693,9 @@
       <c r="C31" t="str">
         <v>512_松虫草粉_scabiosa pink_undefined_1bunch</v>
       </c>
+      <c r="F31" t="str">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -754,7 +757,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151515202015202010552020101530101030151015555152010200</v>
+        <v>01515152020152020105520201015301010301510155551520102015</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Nha Thu_2025-6-6.xlsx
+++ b/DateBase/orders/Nha Thu_2025-6-6.xlsx
@@ -759,6 +759,9 @@
       <c r="G2" t="str">
         <v>01515152020152020105520201015301010301510155551520102015</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
